--- a/Technology/Microsoft.xlsx
+++ b/Technology/Microsoft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B31482-C90E-5C43-AEAF-7D9A8FB9A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5BE05-100C-9740-9EFE-794F4C30B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30940" yWindow="500" windowWidth="20260" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="27800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -855,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,7 +941,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -987,6 +989,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,8 +1741,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3569221386487948"/>
-          <c:y val="0.90013228170271231"/>
+          <c:x val="0.3101841624194277"/>
+          <c:y val="0.89536927459963289"/>
           <c:w val="0.35806592886247635"/>
           <c:h val="6.2390959298349112E-2"/>
         </c:manualLayout>
@@ -1752,7 +1760,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2318,13 +2326,13 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>32253</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>37493</xdr:rowOff>
+      <xdr:rowOff>37492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>1290158</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>104826</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2652,10 +2660,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO54" sqref="AO54"/>
+      <selection pane="bottomRight" activeCell="AN44" sqref="AN44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2783,19 +2791,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="53">
+      <c r="AM1" s="52">
         <v>2023</v>
       </c>
-      <c r="AN1" s="53">
+      <c r="AN1" s="52">
         <v>2024</v>
       </c>
-      <c r="AO1" s="53">
+      <c r="AO1" s="52">
         <v>2025</v>
       </c>
-      <c r="AP1" s="53">
+      <c r="AP1" s="52">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="53">
+      <c r="AQ1" s="52">
         <v>2027</v>
       </c>
     </row>
@@ -3060,16 +3068,16 @@
       <c r="AQ3" s="25">
         <v>320300000000</v>
       </c>
-      <c r="AR3" s="54" t="s">
+      <c r="AR3" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="55" t="s">
+      <c r="AS3" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AT3" s="55" t="s">
+      <c r="AT3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="AU3" s="55" t="s">
+      <c r="AU3" s="54" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3242,19 +3250,19 @@
         <f t="shared" si="7"/>
         <v>8.4659668134100974E-2</v>
       </c>
-      <c r="AR4" s="56">
+      <c r="AR4" s="55">
         <f>(AL4+AK4+AJ4)/3</f>
         <v>0.16377790772708015</v>
       </c>
-      <c r="AS4" s="56">
+      <c r="AS4" s="55">
         <f>(AL20+AK20+AJ20)/3</f>
         <v>0.20007529474142496</v>
       </c>
-      <c r="AT4" s="56">
+      <c r="AT4" s="55">
         <f>(AL29+AK29+AJ29)/3</f>
         <v>0.23310133884414527</v>
       </c>
-      <c r="AU4" s="56">
+      <c r="AU4" s="55">
         <f>(AL105+AK105+AJ105)/3</f>
         <v>0.19460778873716023</v>
       </c>
@@ -3490,16 +3498,16 @@
       <c r="AL6" s="10">
         <v>135620000000</v>
       </c>
-      <c r="AR6" s="54" t="s">
+      <c r="AR6" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AS6" s="55" t="s">
+      <c r="AS6" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="AT6" s="55" t="s">
+      <c r="AT6" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="AU6" s="55" t="s">
+      <c r="AU6" s="54" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3618,19 +3626,19 @@
       <c r="AL7" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR7" s="56">
+      <c r="AR7" s="55">
         <f>AL7</f>
         <v>0.68400000000000005</v>
       </c>
-      <c r="AS7" s="57">
+      <c r="AS7" s="56">
         <f>AL21</f>
         <v>0.50560000000000005</v>
       </c>
-      <c r="AT7" s="57">
+      <c r="AT7" s="56">
         <f>AL30</f>
         <v>0.3669</v>
       </c>
-      <c r="AU7" s="57">
+      <c r="AU7" s="56">
         <f>AL106/AL3</f>
         <v>0.32858727997175569</v>
       </c>
@@ -3903,16 +3911,16 @@
         <f t="shared" si="8"/>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AR9" s="54" t="s">
+      <c r="AR9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="AS9" s="55" t="s">
+      <c r="AS9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="AT9" s="55" t="s">
+      <c r="AT9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="AU9" s="55" t="s">
+      <c r="AU9" s="54" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4031,19 +4039,19 @@
       <c r="AL10" s="1">
         <v>5900000000</v>
       </c>
-      <c r="AR10" s="56">
+      <c r="AR10" s="55">
         <f>AL9</f>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AS10" s="57">
+      <c r="AS10" s="56">
         <f>AL13</f>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AT10" s="57">
+      <c r="AT10" s="56">
         <f>AL80</f>
         <v>3.7837292580824126E-2</v>
       </c>
-      <c r="AU10" s="57">
+      <c r="AU10" s="56">
         <f>AL89</f>
         <v>0.12047208352246935</v>
       </c>
@@ -4279,16 +4287,16 @@
       <c r="AL12" s="1">
         <v>27725000000</v>
       </c>
-      <c r="AR12" s="54" t="s">
+      <c r="AR12" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AS12" s="55" t="s">
+      <c r="AS12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="AT12" s="55" t="s">
+      <c r="AT12" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="AU12" s="55" t="s">
+      <c r="AU12" s="54" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4444,15 +4452,15 @@
         <f t="shared" si="9"/>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AR13" s="56">
+      <c r="AR13" s="55">
         <f>AL28/AL72</f>
         <v>0.43675469250999749</v>
       </c>
-      <c r="AS13" s="57">
+      <c r="AS13" s="56">
         <f>AL28/AL54</f>
         <v>0.19936958666812848</v>
       </c>
-      <c r="AT13" s="57">
+      <c r="AT13" s="56">
         <f>AL22/(AL72+AL56+AL61)</f>
         <v>0.36601671553737292</v>
       </c>
@@ -4692,16 +4700,16 @@
       <c r="AL15" s="1">
         <v>52237000000</v>
       </c>
-      <c r="AR15" s="54" t="s">
+      <c r="AR15" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="AS15" s="55" t="s">
+      <c r="AS15" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="AT15" s="55" t="s">
+      <c r="AT15" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="AU15" s="55" t="s">
+      <c r="AU15" s="54" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4824,15 +4832,15 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="58">
+      <c r="AS16" s="57">
         <f>AT101/AL3</f>
         <v>9.5425429969233875</v>
       </c>
-      <c r="AT16" s="58">
+      <c r="AT16" s="57">
         <f>AT101/AL28</f>
         <v>26.011163353405372</v>
       </c>
-      <c r="AU16" s="59">
+      <c r="AU16" s="58">
         <f>AT101/AL106</f>
         <v>29.041121122350305</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>2063000000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5067,6 +5075,9 @@
       </c>
       <c r="AL18" s="1">
         <v>14460000000</v>
+      </c>
+      <c r="AR18" s="53" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,6 +5194,10 @@
       </c>
       <c r="AL19" s="10">
         <v>100239000000</v>
+      </c>
+      <c r="AR19" s="65">
+        <f>AL40-AL56-AL61</f>
+        <v>43479000000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -12751,10 +12766,10 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="62" t="s">
+      <c r="AS83" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="AT83" s="63"/>
+      <c r="AT83" s="62"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12871,10 +12886,10 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="64" t="s">
+      <c r="AS84" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="AT84" s="65"/>
+      <c r="AT84" s="64"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14012,10 +14027,10 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="64" t="s">
+      <c r="AS93" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="AT93" s="65"/>
+      <c r="AT93" s="64"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14621,10 +14636,10 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="64" t="s">
+      <c r="AS98" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="AT98" s="65"/>
+      <c r="AT98" s="64"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15355,10 +15370,10 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="64" t="s">
+      <c r="AS104" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="AT104" s="65"/>
+      <c r="AT104" s="64"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15759,10 +15774,10 @@
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="60" t="s">
+      <c r="AM109" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="AN109" s="61"/>
+      <c r="AN109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="43" t="s">
@@ -15801,44 +15816,45 @@
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="45" t="s">
+      <c r="AM114" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="AN114" s="46">
-        <v>7469000000</v>
+      <c r="AN114" s="66">
+        <f>AL34*(1+(5*AR16))</f>
+        <v>7254679754.7058077</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="47" t="s">
+      <c r="AM115" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AN115" s="48">
+      <c r="AN115" s="47">
         <f>AN113/AN114</f>
-        <v>235.58167295759119</v>
+        <v>242.54130779224207</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="AN116" s="49">
+      <c r="AN116" s="48">
         <v>254.15</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="50" t="s">
+      <c r="AM117" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AN117" s="51">
+      <c r="AN117" s="50">
         <f>AN115/AN116-1</f>
-        <v>-7.306050380644824E-2</v>
+        <v>-4.567653829532925E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="50" t="s">
+      <c r="AM118" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AN118" s="52" t="str">
+      <c r="AN118" s="51" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
